--- a/testData/write.xlsx
+++ b/testData/write.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="29">
   <si>
     <t>Reliance</t>
   </si>

--- a/testData/write.xlsx
+++ b/testData/write.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="29">
   <si>
     <t>Reliance</t>
   </si>

--- a/testData/write.xlsx
+++ b/testData/write.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="30">
   <si>
     <t>Reliance</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>₹1,282</t>
+  </si>
+  <si>
+    <t>Health Insurance Claim</t>
   </si>
 </sst>
 </file>
@@ -564,7 +567,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">

--- a/testData/write.xlsx
+++ b/testData/write.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="30">
   <si>
     <t>Reliance</t>
   </si>
@@ -488,26 +488,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
